--- a/Code/Results/Cases/Case_4_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.270811322067118</v>
+        <v>2.17671077558947</v>
       </c>
       <c r="C2">
-        <v>0.6368890023676386</v>
+        <v>0.1945268116595571</v>
       </c>
       <c r="D2">
-        <v>0.2027772297193877</v>
+        <v>0.07786673192867966</v>
       </c>
       <c r="E2">
-        <v>0.02611525737424714</v>
+        <v>0.06432310723595247</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.96927495073686</v>
+        <v>1.69463639135941</v>
       </c>
       <c r="H2">
-        <v>1.098277204737428</v>
+        <v>1.42132879432458</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3510360278317251</v>
+        <v>0.2500532008192664</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7942956092999438</v>
+        <v>1.590707076692588</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.697485940516458</v>
+        <v>2.0362873016403</v>
       </c>
       <c r="C3">
-        <v>0.5536103334403037</v>
+        <v>0.1705232375492471</v>
       </c>
       <c r="D3">
-        <v>0.1747783855180103</v>
+        <v>0.07070354049135119</v>
       </c>
       <c r="E3">
-        <v>0.0260868506302101</v>
+        <v>0.06464240156176082</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.761926662744031</v>
+        <v>1.655235560946693</v>
       </c>
       <c r="H3">
-        <v>1.010832114967059</v>
+        <v>1.410139595656432</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.307165833297276</v>
+        <v>0.2403139995967791</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8442967898802536</v>
+        <v>1.609870562354004</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.351273691476706</v>
+        <v>1.951282567180442</v>
       </c>
       <c r="C4">
-        <v>0.5030429397706655</v>
+        <v>0.1557365021969019</v>
       </c>
       <c r="D4">
-        <v>0.1579133123348697</v>
+        <v>0.0663479394053752</v>
       </c>
       <c r="E4">
-        <v>0.02610454240459692</v>
+        <v>0.0648589869073497</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.639671193926745</v>
+        <v>1.632282440568133</v>
       </c>
       <c r="H4">
-        <v>0.9598151333079556</v>
+        <v>1.404128167953047</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2808058487315606</v>
+        <v>0.2344886492888492</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8767160103040297</v>
+        <v>1.622271959818818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.211450271212243</v>
+        <v>1.916946316207884</v>
       </c>
       <c r="C5">
-        <v>0.4825507293332407</v>
+        <v>0.1496982272453238</v>
       </c>
       <c r="D5">
-        <v>0.1511113004001743</v>
+        <v>0.06458353665868799</v>
       </c>
       <c r="E5">
-        <v>0.02612020346492727</v>
+        <v>0.06495241453690515</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.590987939459666</v>
+        <v>1.623238190215716</v>
       </c>
       <c r="H5">
-        <v>0.9396347461650407</v>
+        <v>1.401893521516001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2701915813831306</v>
+        <v>0.2321534564954106</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8903370011418268</v>
+        <v>1.62748483242386</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.188303321083083</v>
+        <v>1.911263107254115</v>
       </c>
       <c r="C6">
-        <v>0.4791541552895922</v>
+        <v>0.1486948067374385</v>
       </c>
       <c r="D6">
-        <v>0.1499857829414708</v>
+        <v>0.06429119033123243</v>
       </c>
       <c r="E6">
-        <v>0.02612330380325734</v>
+        <v>0.06496824031080894</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.582969064619107</v>
+        <v>1.621755016558097</v>
       </c>
       <c r="H6">
-        <v>0.9363188763181256</v>
+        <v>1.401535423435632</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2684363212050016</v>
+        <v>0.2317680307875492</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8926229018941534</v>
+        <v>1.628360028074319</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.349383131010541</v>
+        <v>1.950818268586318</v>
       </c>
       <c r="C7">
-        <v>0.5027661464653477</v>
+        <v>0.1556551192549307</v>
       </c>
       <c r="D7">
-        <v>0.1578213063698826</v>
+        <v>0.06632410160949576</v>
       </c>
       <c r="E7">
-        <v>0.02610471987905871</v>
+        <v>0.06486022597840702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.639010201163444</v>
+        <v>1.632159217160961</v>
       </c>
       <c r="H7">
-        <v>0.959540585325982</v>
+        <v>1.404097161156244</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2806622060142985</v>
+        <v>0.2344569996629247</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8768980759636378</v>
+        <v>1.622341618462357</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.071795937650108</v>
+        <v>2.128039230299692</v>
       </c>
       <c r="C8">
-        <v>0.6080393821780774</v>
+        <v>0.1862601978244527</v>
       </c>
       <c r="D8">
-        <v>0.1930483015358249</v>
+        <v>0.075387905792482</v>
       </c>
       <c r="E8">
-        <v>0.02609793012601713</v>
+        <v>0.06442893918415482</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.896646609735853</v>
+        <v>1.680792416581681</v>
       </c>
       <c r="H8">
-        <v>1.067531208745805</v>
+        <v>1.417291972058052</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3357790137910115</v>
+        <v>0.2466629325043783</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8111653985127489</v>
+        <v>1.597182589857354</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.544686566532846</v>
+        <v>2.485321991590752</v>
       </c>
       <c r="C9">
-        <v>0.8203879954556896</v>
+        <v>0.2459122685878867</v>
       </c>
       <c r="D9">
-        <v>0.2652925601313996</v>
+        <v>0.09350927567453482</v>
       </c>
       <c r="E9">
-        <v>0.02638247341760991</v>
+        <v>0.06374602347414893</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.448787557685648</v>
+        <v>1.78610367663353</v>
       </c>
       <c r="H9">
-        <v>1.3037015673398</v>
+        <v>1.450024704884356</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4493095143847796</v>
+        <v>0.2718348831269282</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6970100246525774</v>
+        <v>1.552903683195566</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.677114218882139</v>
+        <v>2.75394108017133</v>
       </c>
       <c r="C10">
-        <v>0.9822552333065744</v>
+        <v>0.2895483635828668</v>
       </c>
       <c r="D10">
-        <v>0.3212061442538783</v>
+        <v>0.10704869288098</v>
       </c>
       <c r="E10">
-        <v>0.0268028666499589</v>
+        <v>0.063343420543994</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.893764666212149</v>
+        <v>1.869699360073952</v>
       </c>
       <c r="H10">
-        <v>1.497110060090989</v>
+        <v>1.478319725039398</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5374159721148857</v>
+        <v>0.2910982901874775</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6238810388237184</v>
+        <v>1.523481859438299</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.207390679996706</v>
+        <v>2.877513468385871</v>
       </c>
       <c r="C11">
-        <v>1.057757961367059</v>
+        <v>0.3093654393601355</v>
       </c>
       <c r="D11">
-        <v>0.347495055100552</v>
+        <v>0.1132602415792689</v>
       </c>
       <c r="E11">
-        <v>0.02704767604713432</v>
+        <v>0.06318176834809641</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.107541003059879</v>
+        <v>1.909116742277035</v>
       </c>
       <c r="H11">
-        <v>1.590731306233607</v>
+        <v>1.492128595244822</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5788758637006453</v>
+        <v>0.3000324744861302</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5934060681045636</v>
+        <v>1.510778188732012</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.410775603886009</v>
+        <v>2.924507785612263</v>
       </c>
       <c r="C12">
-        <v>1.086675816524235</v>
+        <v>0.3168653801479877</v>
       </c>
       <c r="D12">
-        <v>0.3575957528371845</v>
+        <v>0.1156201558775933</v>
       </c>
       <c r="E12">
-        <v>0.02714882376283612</v>
+        <v>0.06312364387577496</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.190399900511295</v>
+        <v>1.924245632155589</v>
       </c>
       <c r="H12">
-        <v>1.627122806510584</v>
+        <v>1.497493570184872</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5948088837949825</v>
+        <v>0.3034404865342282</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5823130829827576</v>
+        <v>1.506066019612582</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.366851156143696</v>
+        <v>2.914377781220139</v>
       </c>
       <c r="C13">
-        <v>1.080432295806133</v>
+        <v>0.3152503206812014</v>
       </c>
       <c r="D13">
-        <v>0.3554135080514982</v>
+        <v>0.1151115588423721</v>
       </c>
       <c r="E13">
-        <v>0.02712665139173787</v>
+        <v>0.06313602462117629</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.172465172067604</v>
+        <v>1.92097831214943</v>
       </c>
       <c r="H13">
-        <v>1.619241229145587</v>
+        <v>1.496332067404666</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5913664524272662</v>
+        <v>0.3027054023156523</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5846814629877599</v>
+        <v>1.507076482178867</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.224069027401413</v>
+        <v>2.881375695106442</v>
       </c>
       <c r="C14">
-        <v>1.0601301418086</v>
+        <v>0.3099825488708916</v>
       </c>
       <c r="D14">
-        <v>0.3483229832921069</v>
+        <v>0.1134542369561586</v>
       </c>
       <c r="E14">
-        <v>0.02705582370918158</v>
+        <v>0.06317692449607648</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.114317934898139</v>
+        <v>1.910357334056954</v>
       </c>
       <c r="H14">
-        <v>1.593705632139205</v>
+        <v>1.492567246028528</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5801817958877535</v>
+        <v>0.3003123547891278</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5924841919680617</v>
+        <v>1.510388539567316</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.136959962992478</v>
+        <v>2.861187095418757</v>
       </c>
       <c r="C15">
-        <v>1.047738888824568</v>
+        <v>0.3067553318515479</v>
       </c>
       <c r="D15">
-        <v>0.3439995374753977</v>
+        <v>0.1124400928541007</v>
       </c>
       <c r="E15">
-        <v>0.02701356299616542</v>
+        <v>0.06320237919157989</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.078958155328223</v>
+        <v>1.903878112408876</v>
       </c>
       <c r="H15">
-        <v>1.578190777841087</v>
+        <v>1.490278908662106</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.573362334234119</v>
+        <v>0.2988497842575839</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5973233048687732</v>
+        <v>1.512430107063182</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.642797180595949</v>
+        <v>2.745893216921615</v>
       </c>
       <c r="C16">
-        <v>0.9773633091356544</v>
+        <v>0.2882526385772906</v>
       </c>
       <c r="D16">
-        <v>0.3195071637322542</v>
+        <v>0.1066438250668114</v>
       </c>
       <c r="E16">
-        <v>0.0267880068354529</v>
+        <v>0.06335441731078717</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.88004486418734</v>
+        <v>1.867151519337625</v>
       </c>
       <c r="H16">
-        <v>1.491115710080436</v>
+        <v>1.477436235264065</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5347370881439133</v>
+        <v>0.2905178829413018</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6259325896380687</v>
+        <v>1.524325816691139</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.343789951882115</v>
+        <v>2.675518212644931</v>
       </c>
       <c r="C17">
-        <v>0.9347073240862755</v>
+        <v>0.276893627118767</v>
       </c>
       <c r="D17">
-        <v>0.3047158145308231</v>
+        <v>0.103101565214331</v>
       </c>
       <c r="E17">
-        <v>0.02666385291373619</v>
+        <v>0.06345319205283673</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.761108764983561</v>
+        <v>1.844978616279434</v>
       </c>
       <c r="H17">
-        <v>1.439227844380667</v>
+        <v>1.469798497558742</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5114183194619386</v>
+        <v>0.2854505235095388</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6442290248120557</v>
+        <v>1.531798145887102</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.173205570146024</v>
+        <v>2.63516977031253</v>
       </c>
       <c r="C18">
-        <v>0.9103446697369861</v>
+        <v>0.2703570734549317</v>
       </c>
       <c r="D18">
-        <v>0.2962870129132682</v>
+        <v>0.1010690709973971</v>
       </c>
       <c r="E18">
-        <v>0.02659743550333626</v>
+        <v>0.06351202783572152</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.693750036341555</v>
+        <v>1.832355957295988</v>
       </c>
       <c r="H18">
-        <v>1.409905378020341</v>
+        <v>1.465493633184565</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.498133518021973</v>
+        <v>0.2825520098534895</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6550123231387559</v>
+        <v>1.536160044972817</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.115677081470551</v>
+        <v>2.621530638159811</v>
       </c>
       <c r="C19">
-        <v>0.9021237962813586</v>
+        <v>0.2681433549295775</v>
       </c>
       <c r="D19">
-        <v>0.2934460511593358</v>
+        <v>0.1003817423229236</v>
       </c>
       <c r="E19">
-        <v>0.02657578419920448</v>
+        <v>0.06353229613681499</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.671116181460064</v>
+        <v>1.828104495146391</v>
       </c>
       <c r="H19">
-        <v>1.400063343453951</v>
+        <v>1.4640511893829</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4936564388929838</v>
+        <v>0.2815733811492862</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6587066732365159</v>
+        <v>1.53764788565416</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.375472479273981</v>
+        <v>2.682996343687762</v>
       </c>
       <c r="C20">
-        <v>0.9392299389350569</v>
+        <v>0.2781031363563216</v>
       </c>
       <c r="D20">
-        <v>0.3062820685111802</v>
+        <v>0.1034781341810742</v>
       </c>
       <c r="E20">
-        <v>0.02667654753706827</v>
+        <v>0.06344246793136143</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.773659168569026</v>
+        <v>1.8473254234313</v>
       </c>
       <c r="H20">
-        <v>1.444696493689008</v>
+        <v>1.470602415827443</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5138872069217086</v>
+        <v>0.2859882849877664</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6422541524201293</v>
+        <v>1.530996074382699</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.265934037236661</v>
+        <v>2.891063758034363</v>
       </c>
       <c r="C21">
-        <v>1.066084007092229</v>
+        <v>0.3115299359818948</v>
       </c>
       <c r="D21">
-        <v>0.350401490052775</v>
+        <v>0.113940821013415</v>
       </c>
       <c r="E21">
-        <v>0.02707639195962308</v>
+        <v>0.06316482736570705</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.131343065801445</v>
+        <v>1.913471459236604</v>
       </c>
       <c r="H21">
-        <v>1.601179450588148</v>
+        <v>1.493669369635597</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5834603747305636</v>
+        <v>0.3010145752119087</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5901798050411386</v>
+        <v>1.509413031807313</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.863177296926438</v>
+        <v>3.028215465440326</v>
       </c>
       <c r="C22">
-        <v>1.150927762156527</v>
+        <v>0.3333510932866091</v>
       </c>
       <c r="D22">
-        <v>0.3800982303781382</v>
+        <v>0.1208239759081806</v>
       </c>
       <c r="E22">
-        <v>0.02738734880210991</v>
+        <v>0.06300138197666527</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.376379909880001</v>
+        <v>1.957882592581228</v>
       </c>
       <c r="H22">
-        <v>1.708998161728857</v>
+        <v>1.509537336150458</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6303087364501749</v>
+        <v>0.310979959151183</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.55877939121455</v>
+        <v>1.495881300458962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.542869846695794</v>
+        <v>2.954907425796193</v>
       </c>
       <c r="C23">
-        <v>1.105446272029269</v>
+        <v>0.3217068953364617</v>
       </c>
       <c r="D23">
-        <v>0.3641611663425266</v>
+        <v>0.1171461052228437</v>
       </c>
       <c r="E23">
-        <v>0.02721657206023131</v>
+        <v>0.06308696837460914</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.244466606039964</v>
+        <v>1.9340706149151</v>
       </c>
       <c r="H23">
-        <v>1.65089812627923</v>
+        <v>1.500995443059196</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6051659852275719</v>
+        <v>0.3056479207580338</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5752804764346209</v>
+        <v>1.503050719991165</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.361144730533113</v>
+        <v>2.679615134806056</v>
       </c>
       <c r="C24">
-        <v>0.9371847680399412</v>
+        <v>0.2775563362821174</v>
       </c>
       <c r="D24">
-        <v>0.3055737333459234</v>
+        <v>0.103307874912332</v>
       </c>
       <c r="E24">
-        <v>0.02667079290206154</v>
+        <v>0.06344730992482361</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.767981976627425</v>
+        <v>1.84626404327085</v>
       </c>
       <c r="H24">
-        <v>1.442222542742741</v>
+        <v>1.470238696050131</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5127706471030677</v>
+        <v>0.2857451170066838</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6431461719514502</v>
+        <v>1.53135848551112</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.138674426550836</v>
+        <v>2.387605238878336</v>
       </c>
       <c r="C25">
-        <v>0.7620942200603338</v>
+        <v>0.2298105460947113</v>
       </c>
       <c r="D25">
-        <v>0.2453228138107164</v>
+        <v>0.08856835540727559</v>
       </c>
       <c r="E25">
-        <v>0.02627074056110956</v>
+        <v>0.06391335190003833</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.293369203516193</v>
+        <v>1.756533153576896</v>
       </c>
       <c r="H25">
-        <v>1.236718178738727</v>
+        <v>1.440428741667972</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4178813766889959</v>
+        <v>0.2648912295165786</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7261460773615411</v>
+        <v>1.564338118520453</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.17671077558947</v>
+        <v>4.270811322067004</v>
       </c>
       <c r="C2">
-        <v>0.1945268116595571</v>
+        <v>0.6368890023674112</v>
       </c>
       <c r="D2">
-        <v>0.07786673192867966</v>
+        <v>0.2027772297194872</v>
       </c>
       <c r="E2">
-        <v>0.06432310723595247</v>
+        <v>0.02611525737424536</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.69463639135941</v>
+        <v>1.969274950736917</v>
       </c>
       <c r="H2">
-        <v>1.42132879432458</v>
+        <v>1.098277204737315</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2500532008192664</v>
+        <v>0.3510360278317251</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.590707076692588</v>
+        <v>0.7942956092999509</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0362873016403</v>
+        <v>3.697485940516458</v>
       </c>
       <c r="C3">
-        <v>0.1705232375492471</v>
+        <v>0.5536103334404743</v>
       </c>
       <c r="D3">
-        <v>0.07070354049135119</v>
+        <v>0.1747783855182092</v>
       </c>
       <c r="E3">
-        <v>0.06464240156176082</v>
+        <v>0.02608685063021099</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.655235560946693</v>
+        <v>1.761926662743974</v>
       </c>
       <c r="H3">
-        <v>1.410139595656432</v>
+        <v>1.010832114967144</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2403139995967791</v>
+        <v>0.3071658332972618</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.609870562354004</v>
+        <v>0.8442967898802607</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.951282567180442</v>
+        <v>3.351273691476592</v>
       </c>
       <c r="C4">
-        <v>0.1557365021969019</v>
+        <v>0.5030429397707792</v>
       </c>
       <c r="D4">
-        <v>0.0663479394053752</v>
+        <v>0.1579133123347418</v>
       </c>
       <c r="E4">
-        <v>0.0648589869073497</v>
+        <v>0.02610454240455162</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.632282440568133</v>
+        <v>1.639671193926688</v>
       </c>
       <c r="H4">
-        <v>1.404128167953047</v>
+        <v>0.9598151333079556</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2344886492888492</v>
+        <v>0.2808058487315463</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.622271959818818</v>
+        <v>0.8767160103040936</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.916946316207884</v>
+        <v>3.2114502712123</v>
       </c>
       <c r="C5">
-        <v>0.1496982272453238</v>
+        <v>0.4825507293331839</v>
       </c>
       <c r="D5">
-        <v>0.06458353665868799</v>
+        <v>0.1511113004001743</v>
       </c>
       <c r="E5">
-        <v>0.06495241453690515</v>
+        <v>0.02612020346494059</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.623238190215716</v>
+        <v>1.590987939459694</v>
       </c>
       <c r="H5">
-        <v>1.401893521516001</v>
+        <v>0.9396347461650407</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2321534564954106</v>
+        <v>0.2701915813831306</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.62748483242386</v>
+        <v>0.8903370011417664</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.911263107254115</v>
+        <v>3.188303321083083</v>
       </c>
       <c r="C6">
-        <v>0.1486948067374385</v>
+        <v>0.4791541552901037</v>
       </c>
       <c r="D6">
-        <v>0.06429119033123243</v>
+        <v>0.1499857829413429</v>
       </c>
       <c r="E6">
-        <v>0.06496824031080894</v>
+        <v>0.02612330380322359</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.621755016558097</v>
+        <v>1.582969064619022</v>
       </c>
       <c r="H6">
-        <v>1.401535423435632</v>
+        <v>0.9363188763180972</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2317680307875492</v>
+        <v>0.2684363212051011</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.628360028074319</v>
+        <v>0.8926229018941214</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.950818268586318</v>
+        <v>3.349383131010654</v>
       </c>
       <c r="C7">
-        <v>0.1556551192549307</v>
+        <v>0.502766146465035</v>
       </c>
       <c r="D7">
-        <v>0.06632410160949576</v>
+        <v>0.1578213063697831</v>
       </c>
       <c r="E7">
-        <v>0.06486022597840702</v>
+        <v>0.02610471987903562</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.632159217160961</v>
+        <v>1.639010201163444</v>
       </c>
       <c r="H7">
-        <v>1.404097161156244</v>
+        <v>0.959540585325982</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2344569996629247</v>
+        <v>0.280662206014199</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.622341618462357</v>
+        <v>0.8768980759636307</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.128039230299692</v>
+        <v>4.071795937650108</v>
       </c>
       <c r="C8">
-        <v>0.1862601978244527</v>
+        <v>0.6080393821781058</v>
       </c>
       <c r="D8">
-        <v>0.075387905792482</v>
+        <v>0.193048301536038</v>
       </c>
       <c r="E8">
-        <v>0.06442893918415482</v>
+        <v>0.02609793012603845</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.680792416581681</v>
+        <v>1.896646609735825</v>
       </c>
       <c r="H8">
-        <v>1.417291972058052</v>
+        <v>1.067531208745805</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2466629325043783</v>
+        <v>0.3357790137909973</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.597182589857354</v>
+        <v>0.8111653985127347</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.485321991590752</v>
+        <v>5.544686566533017</v>
       </c>
       <c r="C9">
-        <v>0.2459122685878867</v>
+        <v>0.8203879954557749</v>
       </c>
       <c r="D9">
-        <v>0.09350927567453482</v>
+        <v>0.2652925601313854</v>
       </c>
       <c r="E9">
-        <v>0.06374602347414893</v>
+        <v>0.02638247341760813</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.78610367663353</v>
+        <v>2.448787557685563</v>
       </c>
       <c r="H9">
-        <v>1.450024704884356</v>
+        <v>1.3037015673398</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2718348831269282</v>
+        <v>0.4493095143848507</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.552903683195566</v>
+        <v>0.6970100246525845</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.75394108017133</v>
+        <v>6.677114218882139</v>
       </c>
       <c r="C10">
-        <v>0.2895483635828668</v>
+        <v>0.9822552333063754</v>
       </c>
       <c r="D10">
-        <v>0.10704869288098</v>
+        <v>0.3212061442537788</v>
       </c>
       <c r="E10">
-        <v>0.063343420543994</v>
+        <v>0.0268028666499287</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.869699360073952</v>
+        <v>2.893764666212149</v>
       </c>
       <c r="H10">
-        <v>1.478319725039398</v>
+        <v>1.497110060091018</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2910982901874775</v>
+        <v>0.5374159721148288</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.523481859438299</v>
+        <v>0.6238810388237752</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.877513468385871</v>
+        <v>7.207390679996536</v>
       </c>
       <c r="C11">
-        <v>0.3093654393601355</v>
+        <v>1.057757961367059</v>
       </c>
       <c r="D11">
-        <v>0.1132602415792689</v>
+        <v>0.3474950551004667</v>
       </c>
       <c r="E11">
-        <v>0.06318176834809641</v>
+        <v>0.02704767604716807</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.909116742277035</v>
+        <v>3.107541003059708</v>
       </c>
       <c r="H11">
-        <v>1.492128595244822</v>
+        <v>1.590731306233579</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3000324744861302</v>
+        <v>0.5788758637006737</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.510778188732012</v>
+        <v>0.593406068104521</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.924507785612263</v>
+        <v>7.410775603886009</v>
       </c>
       <c r="C12">
-        <v>0.3168653801479877</v>
+        <v>1.086675816524064</v>
       </c>
       <c r="D12">
-        <v>0.1156201558775933</v>
+        <v>0.3575957528369571</v>
       </c>
       <c r="E12">
-        <v>0.06312364387577496</v>
+        <v>0.02714882376280237</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.924245632155589</v>
+        <v>3.190399900511295</v>
       </c>
       <c r="H12">
-        <v>1.497493570184872</v>
+        <v>1.627122806510584</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3034404865342282</v>
+        <v>0.5948088837949683</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.506066019612582</v>
+        <v>0.5823130829828003</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.914377781220139</v>
+        <v>7.366851156143639</v>
       </c>
       <c r="C13">
-        <v>0.3152503206812014</v>
+        <v>1.080432295806077</v>
       </c>
       <c r="D13">
-        <v>0.1151115588423721</v>
+        <v>0.3554135080514982</v>
       </c>
       <c r="E13">
-        <v>0.06313602462117629</v>
+        <v>0.02712665139173254</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.92097831214943</v>
+        <v>3.172465172067604</v>
       </c>
       <c r="H13">
-        <v>1.496332067404666</v>
+        <v>1.619241229145558</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3027054023156523</v>
+        <v>0.5913664524272093</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.507076482178867</v>
+        <v>0.5846814629878168</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.881375695106442</v>
+        <v>7.224069027401413</v>
       </c>
       <c r="C14">
-        <v>0.3099825488708916</v>
+        <v>1.060130141808827</v>
       </c>
       <c r="D14">
-        <v>0.1134542369561586</v>
+        <v>0.3483229832919648</v>
       </c>
       <c r="E14">
-        <v>0.06317692449607648</v>
+        <v>0.02705582370923665</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.910357334056954</v>
+        <v>3.114317934898054</v>
       </c>
       <c r="H14">
-        <v>1.492567246028528</v>
+        <v>1.593705632139205</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3003123547891278</v>
+        <v>0.5801817958877535</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.510388539567316</v>
+        <v>0.5924841919679977</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.861187095418757</v>
+        <v>7.136959962992478</v>
       </c>
       <c r="C15">
-        <v>0.3067553318515479</v>
+        <v>1.047738888824796</v>
       </c>
       <c r="D15">
-        <v>0.1124400928541007</v>
+        <v>0.3439995374753977</v>
       </c>
       <c r="E15">
-        <v>0.06320237919157989</v>
+        <v>0.02701356299619384</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.903878112408876</v>
+        <v>3.078958155328309</v>
       </c>
       <c r="H15">
-        <v>1.490278908662106</v>
+        <v>1.578190777841087</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2988497842575839</v>
+        <v>0.5733623342340621</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.512430107063182</v>
+        <v>0.5973233048687803</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.745893216921615</v>
+        <v>6.642797180596119</v>
       </c>
       <c r="C16">
-        <v>0.2882526385772906</v>
+        <v>0.977363309135626</v>
       </c>
       <c r="D16">
-        <v>0.1066438250668114</v>
+        <v>0.3195071637322542</v>
       </c>
       <c r="E16">
-        <v>0.06335441731078717</v>
+        <v>0.02678800683542093</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.867151519337625</v>
+        <v>2.880044864187283</v>
       </c>
       <c r="H16">
-        <v>1.477436235264065</v>
+        <v>1.491115710080408</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2905178829413018</v>
+        <v>0.534737088143757</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.524325816691139</v>
+        <v>0.6259325896379977</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.675518212644931</v>
+        <v>6.343789951882115</v>
       </c>
       <c r="C17">
-        <v>0.276893627118767</v>
+        <v>0.9347073240867019</v>
       </c>
       <c r="D17">
-        <v>0.103101565214331</v>
+        <v>0.3047158145307236</v>
       </c>
       <c r="E17">
-        <v>0.06345319205283673</v>
+        <v>0.02666385291371043</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.844978616279434</v>
+        <v>2.761108764983476</v>
       </c>
       <c r="H17">
-        <v>1.469798497558742</v>
+        <v>1.439227844380696</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2854505235095388</v>
+        <v>0.5114183194620523</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.531798145887102</v>
+        <v>0.6442290248120131</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.63516977031253</v>
+        <v>6.173205570145967</v>
       </c>
       <c r="C18">
-        <v>0.2703570734549317</v>
+        <v>0.9103446697371851</v>
       </c>
       <c r="D18">
-        <v>0.1010690709973971</v>
+        <v>0.2962870129132824</v>
       </c>
       <c r="E18">
-        <v>0.06351202783572152</v>
+        <v>0.02659743550336291</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.832355957295988</v>
+        <v>2.693750036341527</v>
       </c>
       <c r="H18">
-        <v>1.465493633184565</v>
+        <v>1.409905378020454</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2825520098534895</v>
+        <v>0.498133518021902</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.536160044972817</v>
+        <v>0.6550123231387559</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.621530638159811</v>
+        <v>6.11567708147038</v>
       </c>
       <c r="C19">
-        <v>0.2681433549295775</v>
+        <v>0.9021237962810744</v>
       </c>
       <c r="D19">
-        <v>0.1003817423229236</v>
+        <v>0.2934460511593358</v>
       </c>
       <c r="E19">
-        <v>0.06353229613681499</v>
+        <v>0.02657578419920092</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.828104495146391</v>
+        <v>2.67111618146015</v>
       </c>
       <c r="H19">
-        <v>1.4640511893829</v>
+        <v>1.400063343453922</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2815733811492862</v>
+        <v>0.4936564388929838</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.53764788565416</v>
+        <v>0.6587066732365088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.682996343687762</v>
+        <v>6.375472479273867</v>
       </c>
       <c r="C20">
-        <v>0.2781031363563216</v>
+        <v>0.9392299389352559</v>
       </c>
       <c r="D20">
-        <v>0.1034781341810742</v>
+        <v>0.3062820685109529</v>
       </c>
       <c r="E20">
-        <v>0.06344246793136143</v>
+        <v>0.02667654753710202</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.8473254234313</v>
+        <v>2.77365916856894</v>
       </c>
       <c r="H20">
-        <v>1.470602415827443</v>
+        <v>1.444696493689037</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2859882849877664</v>
+        <v>0.5138872069216518</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.530996074382699</v>
+        <v>0.6422541524201151</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.891063758034363</v>
+        <v>7.265934037236661</v>
       </c>
       <c r="C21">
-        <v>0.3115299359818948</v>
+        <v>1.066084007092911</v>
       </c>
       <c r="D21">
-        <v>0.113940821013415</v>
+        <v>0.3504014900528887</v>
       </c>
       <c r="E21">
-        <v>0.06316482736570705</v>
+        <v>0.02707639195958755</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.913471459236604</v>
+        <v>3.131343065801474</v>
       </c>
       <c r="H21">
-        <v>1.493669369635597</v>
+        <v>1.601179450588006</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3010145752119087</v>
+        <v>0.5834603747305636</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.509413031807313</v>
+        <v>0.5901798050411315</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.028215465440326</v>
+        <v>7.86317729692621</v>
       </c>
       <c r="C22">
-        <v>0.3333510932866091</v>
+        <v>1.150927762156272</v>
       </c>
       <c r="D22">
-        <v>0.1208239759081806</v>
+        <v>0.3800982303779961</v>
       </c>
       <c r="E22">
-        <v>0.06300138197666527</v>
+        <v>0.02738734880207971</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.957882592581228</v>
+        <v>3.376379909879972</v>
       </c>
       <c r="H22">
-        <v>1.509537336150458</v>
+        <v>1.708998161728886</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.310979959151183</v>
+        <v>0.6303087364499902</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.495881300458962</v>
+        <v>0.5587793912145429</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.954907425796193</v>
+        <v>7.542869846695964</v>
       </c>
       <c r="C23">
-        <v>0.3217068953364617</v>
+        <v>1.105446272029212</v>
       </c>
       <c r="D23">
-        <v>0.1171461052228437</v>
+        <v>0.3641611663423703</v>
       </c>
       <c r="E23">
-        <v>0.06308696837460914</v>
+        <v>0.02721657206022599</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.9340706149151</v>
+        <v>3.244466606040021</v>
       </c>
       <c r="H23">
-        <v>1.500995443059196</v>
+        <v>1.650898126279372</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3056479207580338</v>
+        <v>0.605165985227444</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.503050719991165</v>
+        <v>0.5752804764346493</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.679615134806056</v>
+        <v>6.361144730532999</v>
       </c>
       <c r="C24">
-        <v>0.2775563362821174</v>
+        <v>0.9371847680399412</v>
       </c>
       <c r="D24">
-        <v>0.103307874912332</v>
+        <v>0.3055737333460513</v>
       </c>
       <c r="E24">
-        <v>0.06344730992482361</v>
+        <v>0.02667079290208907</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.84626404327085</v>
+        <v>2.767981976627368</v>
       </c>
       <c r="H24">
-        <v>1.470238696050131</v>
+        <v>1.442222542742741</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2857451170066838</v>
+        <v>0.5127706471030535</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.53135848551112</v>
+        <v>0.6431461719514502</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.387605238878336</v>
+        <v>5.138674426551063</v>
       </c>
       <c r="C25">
-        <v>0.2298105460947113</v>
+        <v>0.7620942200601348</v>
       </c>
       <c r="D25">
-        <v>0.08856835540727559</v>
+        <v>0.2453228138106027</v>
       </c>
       <c r="E25">
-        <v>0.06391335190003833</v>
+        <v>0.02627074056111223</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.756533153576896</v>
+        <v>2.293369203516221</v>
       </c>
       <c r="H25">
-        <v>1.440428741667972</v>
+        <v>1.236718178738613</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2648912295165786</v>
+        <v>0.4178813766888538</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.564338118520453</v>
+        <v>0.7261460773614985</v>
       </c>
       <c r="O25">
         <v>0</v>
